--- a/Roadmap_20230207.xlsx
+++ b/Roadmap_20230207.xlsx
@@ -46,18 +46,18 @@
     <t xml:space="preserve">Журнал занятости оборудования</t>
   </si>
   <si>
+    <t xml:space="preserve">Диаграмма Гантта для работ по оргединице</t>
+  </si>
+  <si>
     <t xml:space="preserve">Журнал занятости работников</t>
   </si>
   <si>
+    <t xml:space="preserve">Диаграмма Гантта для работ по бригаде</t>
+  </si>
+  <si>
     <t xml:space="preserve">Журнал занятости бригады</t>
   </si>
   <si>
-    <t xml:space="preserve">Диаграмма Гантта для работ по оргединице</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Диаграмма Гантта для работ по бригаде</t>
-  </si>
-  <si>
     <t xml:space="preserve">Диаграмма Гантта для работ по работнику</t>
   </si>
   <si>
@@ -148,7 +148,7 @@
     <t xml:space="preserve">КАН</t>
   </si>
   <si>
-    <t xml:space="preserve">Отдельный план</t>
+    <t xml:space="preserve">Отдельный план на остатки функциональности</t>
   </si>
 </sst>
 </file>
@@ -333,17 +333,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="37.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="40.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.1"/>
   </cols>
   <sheetData>
@@ -378,160 +378,156 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>8</v>
+      </c>
       <c r="C5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>10</v>
+      </c>
       <c r="C6" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
-        <v>11</v>
+      <c r="A9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="s">
+      <c r="C10" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D10" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="0" t="s">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D11" s="0" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>20</v>
+      <c r="B19" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>21</v>
-      </c>
       <c r="B20" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
-        <v>25</v>
+      <c r="A23" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="0" t="s">
+      <c r="C24" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="0" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="0" t="s">
-        <v>30</v>
+      <c r="D28" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>28</v>
+      <c r="A30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D31" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>34</v>
+      <c r="B31" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D38" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D41" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>42</v>
       </c>
     </row>
